--- a/medicine/Psychotrope/Lycée_viticole_de_Davayé/Lycée_viticole_de_Davayé.xlsx
+++ b/medicine/Psychotrope/Lycée_viticole_de_Davayé/Lycée_viticole_de_Davayé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_viticole_de_Davay%C3%A9</t>
+          <t>Lycée_viticole_de_Davayé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lycée Lucie Aubrac de Mâcon-Davayé situé à Davayé, a été créé dans les années 1960 ; il fait partie des 4 établissements[2] de Bourgogne où sont enseignés la viticulture et l'œnologie (Formations en viticulture-œnologie).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lycée Lucie Aubrac de Mâcon-Davayé situé à Davayé, a été créé dans les années 1960 ; il fait partie des 4 établissements de Bourgogne où sont enseignés la viticulture et l'œnologie (Formations en viticulture-œnologie).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_viticole_de_Davay%C3%A9</t>
+          <t>Lycée_viticole_de_Davayé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lycée viticole de Davayé est un établissement agricole avec internat qui a été fondé en 1967, sur un domaine de 34 hectares (dont 12 hectares de vignes). Les élèves étaient alors recrutés à partir de la classe de 4e pour préparer le brevet de technicien agricole et le brevet de technicien œnologie-viticulture[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lycée viticole de Davayé est un établissement agricole avec internat qui a été fondé en 1967, sur un domaine de 34 hectares (dont 12 hectares de vignes). Les élèves étaient alors recrutés à partir de la classe de 4e pour préparer le brevet de technicien agricole et le brevet de technicien œnologie-viticulture.
 Au sein du lycée fut aussitôt créé un centre de formation professionnelle pour adultes.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_viticole_de_Davay%C3%A9</t>
+          <t>Lycée_viticole_de_Davayé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +559,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lycée
-Plusieurs diplômes sont proposés : 
-Baccalauréat Scientifique, option EAT (écologie, agronomie et territoires)[4] ;
+          <t>Lycée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plusieurs diplômes sont proposés : 
+Baccalauréat Scientifique, option EAT (écologie, agronomie et territoires) ;
 Baccalauréat professionnel « Vigne et vin » ;
 Baccalauréat sciences et technologies de l'agronomie et du vivant (STAV)
 BTS viticulture et œnologie ;
 BTS technico-commercial ;
-DU « Conduite et gestion des exploitations vitivinicoles ».
-CFPPA
-Le Centre de formation professionnelle et de promotion agricole propose différents types de formations, qui se regroupent ainsi avec les formations techniques :
+DU « Conduite et gestion des exploitations vitivinicoles ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lycée_viticole_de_Davayé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lyc%C3%A9e_viticole_de_Davay%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CFPPA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Centre de formation professionnelle et de promotion agricole propose différents types de formations, qui se regroupent ainsi avec les formations techniques :
 le BP REA viticulture-œnologie en alternance ;
 le BTS viticulture-œnologie en alternance ;
 la licence professionnelle viticulture raisonnée en partenariat avec la Sup Agro de Montpellier ;
@@ -563,44 +616,118 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lyc%C3%A9e_viticole_de_Davay%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lycée_viticole_de_Davayé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lyc%C3%A9e_viticole_de_Davay%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Bâtiments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Internat et réfectoire
-L'établissement dispose d'un internat de 104 places.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Internat et réfectoire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'établissement dispose d'un internat de 104 places.
 Self service pour le repas.
 Foyer des élèves et étudiants et Association des lycéens, étudiants, stagiaires et apprentis (ALESA).
-Domaine Viticole
-Parallèlement au lycée agricole, une exploitation viticole nommée « Le domaine de Poncétys », est présente sur le site.
-L'exploitation possède trois AOC différentes, pour une surface totale de 14,2 hectares[1], intégralement situé dans le Vignoble du Mâconnais : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lycée_viticole_de_Davayé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lyc%C3%A9e_viticole_de_Davay%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bâtiments</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Domaine Viticole</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Parallèlement au lycée agricole, une exploitation viticole nommée « Le domaine de Poncétys », est présente sur le site.
+L'exploitation possède trois AOC différentes, pour une surface totale de 14,2 hectares, intégralement situé dans le Vignoble du Mâconnais : 
 Pouilly-Fuissé ;
 Saint-Véran ;
-Mâcon-Davayé.
-La Chèvrerie
-Pour la formation d'élevage caprin, le lycée possède une chèvrerie de 200 chèvres, pour une production de 110 000 litres de lait, soit 200 000 fromages chaque année[1].
+Mâcon-Davayé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lycée_viticole_de_Davayé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lyc%C3%A9e_viticole_de_Davay%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bâtiments</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La Chèvrerie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la formation d'élevage caprin, le lycée possède une chèvrerie de 200 chèvres, pour une production de 110 000 litres de lait, soit 200 000 fromages chaque année.
 </t>
         </is>
       </c>
